--- a/conditions/schedules/train_y_first/red_square_00/top_left/inputTrain_2.1.xlsx
+++ b/conditions/schedules/train_y_first/red_square_00/top_left/inputTrain_2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giancarlodeiana/Desktop/g-casa_children_task/conditions/schedules/train_y_first/x_increasing_steps/bottom_left/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45040\Dropbox\PC (2)\Downloads\g-casa_children_task-master\g-casa_children_task-master\conditions\schedules\train_y_first\red_square_00\top_left\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B66335-632E-454C-ADE3-2B32BA729D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61879F5-3ED8-40CB-B4AF-B8CF0BDBB047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="13080" windowHeight="15080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,12 +408,12 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -456,19 +456,19 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I2">
         <v>30</v>
@@ -477,7 +477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -573,7 +573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -605,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -669,7 +669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -680,19 +680,19 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I9">
         <v>30</v>
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -733,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -776,19 +776,19 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>7</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I12">
         <v>30</v>
@@ -797,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -829,7 +829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -893,7 +893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -925,7 +925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -957,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -989,7 +989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1032,19 +1032,19 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>8</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I20">
         <v>30</v>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1096,19 +1096,19 @@
         <v>7</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>7</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I22">
         <v>30</v>
@@ -1117,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1288,19 +1288,19 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>6</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I28">
         <v>30</v>
@@ -1309,7 +1309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
